--- a/data/fire_brigade/data.xlsx
+++ b/data/fire_brigade/data.xlsx
@@ -537,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>34.34176</v>
+        <v>34.34579697324878</v>
       </c>
       <c r="C6" t="str">
-        <v>134.0586</v>
+        <v>134.06362674780098</v>
       </c>
       <c r="D6" t="str">
         <v>高松市消防団北部分団屯所</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市松福町1-20-9</v>
+        <v>高松市福岡町2-10-15</v>
       </c>
       <c r="F6" t="str">
         <v>087-861-2503</v>

--- a/data/fire_brigade/data.xlsx
+++ b/data/fire_brigade/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +442,7 @@
         <v>高松市消防団東部分団屯所</v>
       </c>
       <c r="E2" t="str">
-        <v>高松市観光通2-5-18</v>
+        <v>高松市観光通2-9-15</v>
       </c>
       <c r="F2" t="str">
         <v>087-861-2503</v>
@@ -936,7 +936,7 @@
         <v>高松市消防団仏生山分団第１部屯所</v>
       </c>
       <c r="E21" t="str">
-        <v>高松市仏生山町甲2528-16</v>
+        <v>高松市仏生山町甲2518-16</v>
       </c>
       <c r="F21" t="str">
         <v>087-861-2503</v>
@@ -1482,7 +1482,7 @@
         <v>高松市消防団川添分団第２部屯所</v>
       </c>
       <c r="E42" t="str">
-        <v>高松市東山崎町33‐7</v>
+        <v>高松市東山崎町33‐2</v>
       </c>
       <c r="F42" t="str">
         <v>087-861-2503</v>
@@ -1989,29 +1989,23 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
-        <v>61</v>
-      </c>
       <c r="B62" t="str">
-        <v>34.20666</v>
+        <v>34.19596225788533</v>
       </c>
       <c r="C62" t="str">
-        <v>134.03375</v>
+        <v>134.04199847291943</v>
       </c>
       <c r="D62" t="str">
-        <v>高松市消防団塩江分団第１部長野屯所</v>
+        <v>高松市消防団塩江分団第１部車庫</v>
       </c>
       <c r="E62" t="str">
-        <v>高松市塩江町安原下第3号500-3</v>
+        <v>高松市塩江町安原下第２号1645-1</v>
       </c>
       <c r="F62" t="str">
         <v>087-861-2503</v>
       </c>
       <c r="G62" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai7.html</v>
-      </c>
-      <c r="H62" t="str">
-        <v/>
       </c>
     </row>
     <row r="63">
@@ -2042,19 +2036,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="str">
-        <v>34.18052</v>
+        <v>34.15057</v>
       </c>
       <c r="C64" t="str">
-        <v>134.07335</v>
+        <v>134.07658</v>
       </c>
       <c r="D64" t="str">
-        <v>高松市消防団塩江分団第２部岩部屯所</v>
+        <v>高松市消防団塩江分団第３部屯所</v>
       </c>
       <c r="E64" t="str">
-        <v>高松市塩江町安原上東279-3</v>
+        <v>高松市塩江町上西乙549</v>
       </c>
       <c r="F64" t="str">
         <v>087-861-2503</v>
@@ -2068,19 +2062,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="str">
-        <v>34.15057</v>
+        <v>34.26733</v>
       </c>
       <c r="C65" t="str">
-        <v>134.07658</v>
+        <v>134.0247</v>
       </c>
       <c r="D65" t="str">
-        <v>高松市消防団塩江分団第３部屯所</v>
+        <v>高松市消防団香川分団第１部雪元屯所</v>
       </c>
       <c r="E65" t="str">
-        <v>高松市塩江町上西乙549</v>
+        <v>高松市香川町大野1329-4</v>
       </c>
       <c r="F65" t="str">
         <v>087-861-2503</v>
@@ -2094,19 +2088,19 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="str">
-        <v>34.26733</v>
+        <v>34.258</v>
       </c>
       <c r="C66" t="str">
-        <v>134.0247</v>
+        <v>134.02741</v>
       </c>
       <c r="D66" t="str">
-        <v>高松市消防団香川分団第１部雪元屯所</v>
+        <v>高松市消防団香川分団第１部臼井屯所</v>
       </c>
       <c r="E66" t="str">
-        <v>高松市香川町大野1329-4</v>
+        <v>高松市香川町大野632-7</v>
       </c>
       <c r="F66" t="str">
         <v>087-861-2503</v>
@@ -2120,19 +2114,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="str">
-        <v>34.258</v>
+        <v>34.26775</v>
       </c>
       <c r="C67" t="str">
-        <v>134.02741</v>
+        <v>134.03742</v>
       </c>
       <c r="D67" t="str">
-        <v>高松市消防団香川分団第１部臼井屯所</v>
+        <v>高松市消防団香川分団第２部船岡屯所</v>
       </c>
       <c r="E67" t="str">
-        <v>高松市香川町大野632-7</v>
+        <v>高松市香川町浅野234-1</v>
       </c>
       <c r="F67" t="str">
         <v>087-861-2503</v>
@@ -2146,19 +2140,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="str">
-        <v>34.26775</v>
+        <v>34.25678</v>
       </c>
       <c r="C68" t="str">
-        <v>134.03742</v>
+        <v>134.03579</v>
       </c>
       <c r="D68" t="str">
-        <v>高松市消防団香川分団第２部船岡屯所</v>
+        <v>高松市消防団香川分団第２部上浅野屯所</v>
       </c>
       <c r="E68" t="str">
-        <v>高松市香川町浅野234-1</v>
+        <v>高松市香川町浅野826-2</v>
       </c>
       <c r="F68" t="str">
         <v>087-861-2503</v>
@@ -2172,19 +2166,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="str">
-        <v>34.25678</v>
+        <v>34.2514</v>
       </c>
       <c r="C69" t="str">
-        <v>134.03579</v>
+        <v>134.0465</v>
       </c>
       <c r="D69" t="str">
-        <v>高松市消防団香川分団第２部上浅野屯所</v>
+        <v>高松市消防団香川分団第２部道端屯所</v>
       </c>
       <c r="E69" t="str">
-        <v>高松市香川町浅野826-2</v>
+        <v>高松市香川町浅野1898-3</v>
       </c>
       <c r="F69" t="str">
         <v>087-861-2503</v>
@@ -2198,19 +2192,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="str">
-        <v>34.2514</v>
+        <v>34.26236</v>
       </c>
       <c r="C70" t="str">
-        <v>134.0465</v>
+        <v>134.04792</v>
       </c>
       <c r="D70" t="str">
-        <v>高松市消防団香川分団第２部道端屯所</v>
+        <v>高松市消防団香川分団第２部実相寺屯所</v>
       </c>
       <c r="E70" t="str">
-        <v>高松市香川町浅野1898-3</v>
+        <v>高松市香川町浅野3351-8</v>
       </c>
       <c r="F70" t="str">
         <v>087-861-2503</v>
@@ -2224,19 +2218,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="str">
-        <v>34.26236</v>
+        <v>34.23683</v>
       </c>
       <c r="C71" t="str">
-        <v>134.04792</v>
+        <v>134.03438</v>
       </c>
       <c r="D71" t="str">
-        <v>高松市消防団香川分団第２部実相寺屯所</v>
+        <v>高松市消防団香川分団第３部川東屯所</v>
       </c>
       <c r="E71" t="str">
-        <v>高松市香川町浅野3351-8</v>
+        <v>高松市香川町川東上1659-1</v>
       </c>
       <c r="F71" t="str">
         <v>087-861-2503</v>
@@ -2250,19 +2244,19 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B72" t="str">
-        <v>34.23683</v>
+        <v>34.20442</v>
       </c>
       <c r="C72" t="str">
-        <v>134.03438</v>
+        <v>134.06215</v>
       </c>
       <c r="D72" t="str">
-        <v>高松市消防団香川分団第３部川東屯所</v>
+        <v>高松市消防団香川分団第４部東谷屯所</v>
       </c>
       <c r="E72" t="str">
-        <v>高松市香川町川東上1659-1</v>
+        <v>高松市香川町東谷870-10</v>
       </c>
       <c r="F72" t="str">
         <v>087-861-2503</v>
@@ -2276,19 +2270,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" t="str">
-        <v>34.20442</v>
+        <v>34.21213</v>
       </c>
       <c r="C73" t="str">
-        <v>134.06215</v>
+        <v>134.03185</v>
       </c>
       <c r="D73" t="str">
-        <v>高松市消防団香川分団第４部東谷屯所</v>
+        <v>高松市消防団香川分団第４部安原屯所</v>
       </c>
       <c r="E73" t="str">
-        <v>高松市香川町東谷870-10</v>
+        <v>高松市香川町安原下第3号188-2</v>
       </c>
       <c r="F73" t="str">
         <v>087-861-2503</v>
@@ -2302,19 +2296,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="str">
-        <v>34.21213</v>
+        <v>34.23939</v>
       </c>
       <c r="C74" t="str">
-        <v>134.03185</v>
+        <v>134.01205</v>
       </c>
       <c r="D74" t="str">
-        <v>高松市消防団香川分団第４部安原屯所</v>
+        <v>高松市消防団香南分団１部屯所</v>
       </c>
       <c r="E74" t="str">
-        <v>高松市香川町安原下第3号188-2</v>
+        <v>高松市香南町由佐1402-12</v>
       </c>
       <c r="F74" t="str">
         <v>087-861-2503</v>
@@ -2328,19 +2322,19 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="str">
-        <v>34.23939</v>
+        <v>34.24494</v>
       </c>
       <c r="C75" t="str">
-        <v>134.01205</v>
+        <v>134.00036</v>
       </c>
       <c r="D75" t="str">
-        <v>高松市消防団香南分団１部屯所</v>
+        <v>高松市消防団香南分団第２部屯所</v>
       </c>
       <c r="E75" t="str">
-        <v>高松市香南町由佐1402-12</v>
+        <v>高松市香南町池内522-1</v>
       </c>
       <c r="F75" t="str">
         <v>087-861-2503</v>
@@ -2354,25 +2348,25 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="str">
-        <v>34.24494</v>
+        <v>34.38571</v>
       </c>
       <c r="C76" t="str">
-        <v>134.00036</v>
+        <v>134.13044</v>
       </c>
       <c r="D76" t="str">
-        <v>高松市消防団香南分団第２部屯所</v>
+        <v>高松市消防団庵治分団第１部才田屯所</v>
       </c>
       <c r="E76" t="str">
-        <v>高松市香南町池内522-1</v>
+        <v>高松市庵治町868-1</v>
       </c>
       <c r="F76" t="str">
         <v>087-861-2503</v>
       </c>
       <c r="G76" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai7.html</v>
+        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai8.html</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -2380,19 +2374,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" t="str">
-        <v>34.38571</v>
+        <v>34.38931</v>
       </c>
       <c r="C77" t="str">
-        <v>134.13044</v>
+        <v>134.12849</v>
       </c>
       <c r="D77" t="str">
-        <v>高松市消防団庵治分団第１部才田屯所</v>
+        <v>高松市消防団庵治分団第１部浜屯所</v>
       </c>
       <c r="E77" t="str">
-        <v>高松市庵治町868-1</v>
+        <v>高松市庵治町6384-43</v>
       </c>
       <c r="F77" t="str">
         <v>087-861-2503</v>
@@ -2406,19 +2400,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" t="str">
-        <v>34.38931</v>
+        <v>34.38465</v>
       </c>
       <c r="C78" t="str">
-        <v>134.12849</v>
+        <v>134.12634</v>
       </c>
       <c r="D78" t="str">
-        <v>高松市消防団庵治分団第１部浜屯所</v>
+        <v>高松市消防団庵治分団消防コミュニティセンター</v>
       </c>
       <c r="E78" t="str">
-        <v>高松市庵治町6384-43</v>
+        <v>高松市庵治町6393-5</v>
       </c>
       <c r="F78" t="str">
         <v>087-861-2503</v>
@@ -2432,19 +2426,19 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" t="str">
-        <v>34.38465</v>
+        <v>34.39184</v>
       </c>
       <c r="C79" t="str">
-        <v>134.12634</v>
+        <v>134.1263</v>
       </c>
       <c r="D79" t="str">
-        <v>高松市消防団庵治分団消防コミュニティセンター</v>
+        <v>高松市消防団庵治分団第２部王の下屯所</v>
       </c>
       <c r="E79" t="str">
-        <v>高松市庵治町6393-5</v>
+        <v>高松市庵治町6368-28</v>
       </c>
       <c r="F79" t="str">
         <v>087-861-2503</v>
@@ -2458,19 +2452,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" t="str">
-        <v>34.39184</v>
+        <v>34.39863</v>
       </c>
       <c r="C80" t="str">
-        <v>134.1263</v>
+        <v>134.13673</v>
       </c>
       <c r="D80" t="str">
-        <v>高松市消防団庵治分団第２部王の下屯所</v>
+        <v>高松市消防団庵治分団第２部竹居屯所</v>
       </c>
       <c r="E80" t="str">
-        <v>高松市庵治町6368-28</v>
+        <v>高松市庵治町5385-4</v>
       </c>
       <c r="F80" t="str">
         <v>087-861-2503</v>
@@ -2484,19 +2478,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" t="str">
-        <v>34.39863</v>
+        <v>34.39163</v>
       </c>
       <c r="C81" t="str">
-        <v>134.13673</v>
+        <v>134.15257</v>
       </c>
       <c r="D81" t="str">
-        <v>高松市消防団庵治分団第２部竹居屯所</v>
+        <v>高松市消防団庵治分団第２部鎌野屯所</v>
       </c>
       <c r="E81" t="str">
-        <v>高松市庵治町5385-4</v>
+        <v>高松市庵治町4511-20</v>
       </c>
       <c r="F81" t="str">
         <v>087-861-2503</v>
@@ -2510,19 +2504,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="str">
-        <v>34.39163</v>
+        <v>34.38681</v>
       </c>
       <c r="C82" t="str">
-        <v>134.15257</v>
+        <v>134.13488</v>
       </c>
       <c r="D82" t="str">
-        <v>高松市消防団庵治分団第２部鎌野屯所</v>
+        <v>高松市消防団庵治分団第３部北村屯所</v>
       </c>
       <c r="E82" t="str">
-        <v>高松市庵治町4511-20</v>
+        <v>高松市庵治町1088</v>
       </c>
       <c r="F82" t="str">
         <v>087-861-2503</v>
@@ -2536,19 +2530,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" t="str">
-        <v>34.38681</v>
+        <v>34.38057</v>
       </c>
       <c r="C83" t="str">
-        <v>134.13488</v>
+        <v>134.14153</v>
       </c>
       <c r="D83" t="str">
-        <v>高松市消防団庵治分団第３部北村屯所</v>
+        <v>高松市消防団庵治分団第３部宮東屯所</v>
       </c>
       <c r="E83" t="str">
-        <v>高松市庵治町1088-2</v>
+        <v>高松市庵治町4083</v>
       </c>
       <c r="F83" t="str">
         <v>087-861-2503</v>
@@ -2562,19 +2556,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" t="str">
-        <v>34.38057</v>
+        <v>34.3753</v>
       </c>
       <c r="C84" t="str">
-        <v>134.14153</v>
+        <v>134.13801</v>
       </c>
       <c r="D84" t="str">
-        <v>高松市消防団庵治分団第３部宮東屯所</v>
+        <v>高松市消防団庵治分団第３部松尾屯所</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市庵治町4083</v>
+        <v>高松市庵治町2290-1</v>
       </c>
       <c r="F84" t="str">
         <v>087-861-2503</v>
@@ -2588,19 +2582,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="str">
-        <v>34.3753</v>
+        <v>34.36307</v>
       </c>
       <c r="C85" t="str">
-        <v>134.13801</v>
+        <v>134.15707</v>
       </c>
       <c r="D85" t="str">
-        <v>高松市消防団庵治分団第３部松尾屯所</v>
+        <v>高松市消防団庵治分団第４部高尻屯所</v>
       </c>
       <c r="E85" t="str">
-        <v>高松市庵治町2290-1</v>
+        <v>高松市庵治町2914</v>
       </c>
       <c r="F85" t="str">
         <v>087-861-2503</v>
@@ -2614,19 +2608,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" t="str">
-        <v>34.36307</v>
+        <v>34.37932</v>
       </c>
       <c r="C86" t="str">
-        <v>134.15707</v>
+        <v>134.12828</v>
       </c>
       <c r="D86" t="str">
-        <v>高松市消防団庵治分団第４部高尻屯所</v>
+        <v>高松市消防団庵治分団第４部湯谷屯所</v>
       </c>
       <c r="E86" t="str">
-        <v>高松市庵治町2914</v>
+        <v>高松市庵治町333-2</v>
       </c>
       <c r="F86" t="str">
         <v>087-861-2503</v>
@@ -2640,19 +2634,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" t="str">
-        <v>34.37932</v>
+        <v>34.36845</v>
       </c>
       <c r="C87" t="str">
-        <v>134.12828</v>
+        <v>134.12069</v>
       </c>
       <c r="D87" t="str">
-        <v>高松市消防団庵治分団第４部湯谷屯所</v>
+        <v>高松市消防団庵治分団第４部深間屯所</v>
       </c>
       <c r="E87" t="str">
-        <v>高松市庵治町333-2</v>
+        <v>高松市庵治町6391-17</v>
       </c>
       <c r="F87" t="str">
         <v>087-861-2503</v>
@@ -2666,19 +2660,19 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" t="str">
-        <v>34.36845</v>
+        <v>34.32718</v>
       </c>
       <c r="C88" t="str">
-        <v>134.12069</v>
+        <v>134.15335</v>
       </c>
       <c r="D88" t="str">
-        <v>高松市消防団庵治分団第４部深間屯所</v>
+        <v>高松市消防団牟礼分団第１部屯所</v>
       </c>
       <c r="E88" t="str">
-        <v>高松市庵治町6391-17</v>
+        <v>高松市牟礼町原766</v>
       </c>
       <c r="F88" t="str">
         <v>087-861-2503</v>
@@ -2692,19 +2686,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="str">
-        <v>34.32718</v>
+        <v>34.33599</v>
       </c>
       <c r="C89" t="str">
-        <v>134.15335</v>
+        <v>134.1427</v>
       </c>
       <c r="D89" t="str">
-        <v>高松市消防団牟礼分団第１部屯所</v>
+        <v>高松市消防団牟礼分団第２部屯所</v>
       </c>
       <c r="E89" t="str">
-        <v>高松市牟礼町原766</v>
+        <v>高松市牟礼町大町1459-2</v>
       </c>
       <c r="F89" t="str">
         <v>087-861-2503</v>
@@ -2718,19 +2712,19 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="str">
-        <v>34.33599</v>
+        <v>34.35002</v>
       </c>
       <c r="C90" t="str">
-        <v>134.1427</v>
+        <v>134.12692</v>
       </c>
       <c r="D90" t="str">
-        <v>高松市消防団牟礼分団第２部屯所</v>
+        <v>高松市消防団牟礼分団第３部屯所</v>
       </c>
       <c r="E90" t="str">
-        <v>高松市牟礼町大町1459-2</v>
+        <v>高松市牟礼町牟礼3029-1</v>
       </c>
       <c r="F90" t="str">
         <v>087-861-2503</v>
@@ -2744,19 +2738,19 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" t="str">
-        <v>34.35002</v>
+        <v>34.34061</v>
       </c>
       <c r="C91" t="str">
-        <v>134.12692</v>
+        <v>134.13399</v>
       </c>
       <c r="D91" t="str">
-        <v>高松市消防団牟礼分団第３部屯所</v>
+        <v>高松市消防団牟礼分団第４部屯所</v>
       </c>
       <c r="E91" t="str">
-        <v>高松市牟礼町牟礼3029-1</v>
+        <v>高松市牟礼町牟礼1118-1</v>
       </c>
       <c r="F91" t="str">
         <v>087-861-2503</v>
@@ -2770,25 +2764,25 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="str">
-        <v>34.34061</v>
+        <v>34.31271</v>
       </c>
       <c r="C92" t="str">
-        <v>134.13399</v>
+        <v>134.0662</v>
       </c>
       <c r="D92" t="str">
-        <v>高松市消防団牟礼分団第４部屯所</v>
+        <v>高松市消防団木太分団第３部屯所</v>
       </c>
       <c r="E92" t="str">
-        <v>高松市牟礼町牟礼1118-1</v>
+        <v>高松市木太町5096-1</v>
       </c>
       <c r="F92" t="str">
         <v>087-861-2503</v>
       </c>
       <c r="G92" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai8.html</v>
+        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai4.html</v>
       </c>
       <c r="H92" t="str">
         <v/>
@@ -2796,25 +2790,25 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" t="str">
-        <v>34.31271</v>
+        <v>34.3901</v>
       </c>
       <c r="C93" t="str">
-        <v>134.0662</v>
+        <v>134.05301</v>
       </c>
       <c r="D93" t="str">
-        <v>高松市消防団木太分団第３部屯所</v>
+        <v>高松市消防団女木分団東浦消防屯所車庫</v>
       </c>
       <c r="E93" t="str">
-        <v>高松市木太町5096-1</v>
+        <v>高松市女木町235-1</v>
       </c>
       <c r="F93" t="str">
         <v>087-861-2503</v>
       </c>
       <c r="G93" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai4.html</v>
+        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai1.html</v>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -2822,19 +2816,19 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" t="str">
-        <v>34.3901</v>
+        <v>34.39484</v>
       </c>
       <c r="C94" t="str">
-        <v>134.05301</v>
+        <v>134.04418</v>
       </c>
       <c r="D94" t="str">
-        <v>高松市消防団女木分団東浦消防屯所車庫</v>
+        <v>高松市消防団女木分団西浦消防屯所車庫</v>
       </c>
       <c r="E94" t="str">
-        <v>高松市女木町235-1</v>
+        <v>高松市女木町2943</v>
       </c>
       <c r="F94" t="str">
         <v>087-861-2503</v>
@@ -2847,20 +2841,17 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
-        <v>96</v>
-      </c>
       <c r="B95" t="str">
-        <v>34.39484</v>
+        <v>34.39506251264558</v>
       </c>
       <c r="C95" t="str">
-        <v>134.04418</v>
+        <v>134.04450044702173</v>
       </c>
       <c r="D95" t="str">
-        <v>高松市消防団女木分団西浦消防屯所車庫</v>
+        <v>高松市消防団女木分団西浦消防屯所倉庫</v>
       </c>
       <c r="E95" t="str">
-        <v>高松市女木町2943</v>
+        <v>高松市女木町西浦1906地先</v>
       </c>
       <c r="F95" t="str">
         <v>087-861-2503</v>
@@ -2868,65 +2859,36 @@
       <c r="G95" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai1.html</v>
       </c>
-      <c r="H95" t="str">
-        <v/>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B96" t="str">
-        <v>34.23971</v>
+        <v>34.24382</v>
       </c>
       <c r="C96" t="str">
-        <v>134.07662</v>
+        <v>134.027</v>
       </c>
       <c r="D96" t="str">
-        <v>高松市消防団消防山田倉庫</v>
+        <v>高松市消防団香川分団第３部川東下屯所</v>
       </c>
       <c r="E96" t="str">
-        <v>高松市西植田町3034-6</v>
+        <v>高松市香川町川東下765-7</v>
       </c>
       <c r="F96" t="str">
         <v>087-861-2503</v>
       </c>
       <c r="G96" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai5.html</v>
+        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai7.html</v>
       </c>
       <c r="H96" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>72</v>
-      </c>
-      <c r="B97" t="str">
-        <v>34.24382</v>
-      </c>
-      <c r="C97" t="str">
-        <v>134.027</v>
-      </c>
-      <c r="D97" t="str">
-        <v>高松市消防団香川分団第３部川東下屯所</v>
-      </c>
-      <c r="E97" t="str">
-        <v>高松市香川町川東下765-6</v>
-      </c>
-      <c r="F97" t="str">
-        <v>087-861-2503</v>
-      </c>
-      <c r="G97" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shobo/shobo/shobodan/dai7.html</v>
-      </c>
-      <c r="H97" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H96"/>
   </ignoredErrors>
 </worksheet>
 </file>